--- a/spreadsheets/InitialMarginRegression.xlsx
+++ b/spreadsheets/InitialMarginRegression.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18730"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="12000" windowWidth="22260" windowHeight="12648" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="12600" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="loadLibs" sheetId="1" r:id="rId1"/>
@@ -56,7 +56,7 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Swap for IM Regression. This object is of class AbstractLIBORMonteCarloProduct.
+Swap for IM Regression. This object is of class AbstractLIBORMonteCarloRegressionProduct. This class extends the class AbstractLIBORMonteCarloProduct and contains the method getCF to obtain the cash flows in the margin period of risk.
 </t>
         </r>
       </text>
@@ -305,7 +305,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="71">
   <si>
     <t>Object Viewer</t>
   </si>
@@ -486,9 +486,6 @@
     </r>
   </si>
   <si>
-    <t>wrapped into portfolio</t>
-  </si>
-  <si>
     <t>Here we create the portfolio by invoking the functions "createSwap"</t>
   </si>
   <si>
@@ -543,16 +540,10 @@
     <t>PathIndex</t>
   </si>
   <si>
-    <t>Conditional Expectation (Variance on path)</t>
-  </si>
-  <si>
     <t>Value</t>
   </si>
   <si>
     <t xml:space="preserve">Discount Curve </t>
-  </si>
-  <si>
-    <t>squared Portfolio Value Change over MPR on path</t>
   </si>
   <si>
     <t>VolatilityParameter (Volatility From given Matrix)</t>
@@ -568,6 +559,21 @@
   </si>
   <si>
     <t>net.finmath.initialmargin.regression.InitialMarginForwardRegression</t>
+  </si>
+  <si>
+    <t>Set initial Life Time of Portfolio</t>
+  </si>
+  <si>
+    <t>Wrapped into portfolio</t>
+  </si>
+  <si>
+    <t>type AbstractLIBORMonteCarloRegressionProduct[]</t>
+  </si>
+  <si>
+    <t>Conditional Expectation (Realization of Variance)</t>
+  </si>
+  <si>
+    <t>squared Portfolio Value Change over MPR (Realization)</t>
   </si>
 </sst>
 </file>
@@ -1136,7 +1142,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>squared Portfolio Value Change over MPR on path</c:v>
+                  <c:v>squared Portfolio Value Change over MPR (Realization)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -7200,7 +7206,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Conditional Expectation (Variance on path)</c:v>
+                  <c:v>Conditional Expectation (Realization of Variance)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -13267,7 +13273,8 @@
         <c:axId val="228441984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="20"/>
+          <c:max val="18"/>
+          <c:min val="2"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -13387,7 +13394,7 @@
         <c:axId val="228439184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="5"/>
+          <c:max val="2"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -14047,6 +14054,351 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-8EC1-45EB-9210-7CBED49D68C5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Regression!$C$26</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Simple</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Regression!$C$27:$C$127</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>1.337594396541899</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.2476849574445641</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.2165289961787416</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.2882731030311998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.3164935108458327</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.2380651693513727</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.3861851624651269</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.1750973085104341</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.3922268226631687</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.2910570048534868</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.0913374365037285</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.1814811356151722</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.2536575562817234</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.356022480475076</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.3880684976993507</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.2333451753124791</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.2998918198859428</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.3001260862540676</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.2900898128445988</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.234258048577658</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.184801392395002</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.3428624368586952</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.2485500891480115</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.2462915026824248</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.1704090449586602</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.183625591585951</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.3023876088302586</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.1089535587288992</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.2328698821601449</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.293802653741702</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.1274456011192342</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.2025049839860174</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.3004729380493529</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.246784852212464</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.0974714274452264</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.118785665183978</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.2353201879556224</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.1497023128444397</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.1747478363035668</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.26343138623435</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1.0478124746221411</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1.1974320367751936</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1.1873085992367578</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1.2344772628528382</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1.0354159584870501</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1.1549272334911436</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1.2352282987733112</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1.3301082550194856</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1.2339044213243113</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1.0542106904840143</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1.069491864936257</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1.3488431068992259</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1.1568030066159736</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1.067144092121211</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1.1015919898744926</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1.0337783024757581</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1.0229803356049514</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.93929394702450075</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.99792189609272697</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.92742422795084156</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1.0446921651113161</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1.0878530733559018</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.81449949189819115</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.87233957640577842</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.99763920550397955</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.89364312282390657</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.77994518609914465</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.93851594086148538</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1.0055790385786878</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.9118132923381026</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.82329455561812459</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.84202599776961407</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.66713056878007038</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.67020925561633149</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.84063417266987628</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.67384163709557043</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.69746028178966668</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.60800807037569982</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.77417875343184051</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.65869285631982954</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.50171939452928571</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.53035873273841894</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.50343302351459851</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.54749381851218182</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.52609587428000637</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.56182439839531728</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.46452222698097856</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.47791360149463991</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.52683925964242029</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.53014761915708242</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.12953234077556619</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>2.3476571849179173E-4</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>2.3552542657023778E-4</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>2.363080398327666E-4</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>2.3715258321854726E-4</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>2.3794064249638147E-4</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>2.3875536104556172E-4</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>2.3948013611108099E-4</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>2.4021930799089652E-4</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>2.4107278936125187E-4</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>3.1020156703542856E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2AC6-4865-B0D4-4BA2452CB264}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -15843,8 +16195,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:L27"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16346,7 +16698,7 @@
         <v>5</v>
       </c>
       <c r="F17" s="63" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.3">
@@ -16400,8 +16752,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:IU283"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M27" sqref="M27"/>
+    <sheetView topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L29" sqref="L29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="11.85" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -17643,7 +17995,7 @@
       <c r="I6" s="11"/>
       <c r="K6" s="1"/>
       <c r="L6" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M6" s="11"/>
       <c r="N6" s="11"/>
@@ -17689,7 +18041,7 @@
       <c r="B9" s="37" t="str">
         <f>[1]!obcall("Reference Date"&amp;COLUMN(),$L$7,"of",[1]!obMake("","int",YEAR(C9)),[1]!obMake("","int",MONTH(C9)),[1]!obMake("","int",DAY(C9)))</f>
         <v>Reference Date2 
-[12743]</v>
+[9254]</v>
       </c>
       <c r="C9" s="15">
         <v>42959</v>
@@ -17697,7 +18049,7 @@
       <c r="E9" s="37" t="str">
         <f>[1]!obcall("Reference Date"&amp;COLUMN(),$L$7,"of",[1]!obMake("","int",YEAR(F9)),[1]!obMake("","int",MONTH(F9)),[1]!obMake("","int",DAY(F9)))</f>
         <v>Reference Date5 
-[12735]</v>
+[9246]</v>
       </c>
       <c r="F9" s="15">
         <v>42959</v>
@@ -17705,7 +18057,7 @@
       <c r="H9" s="37" t="str">
         <f>[1]!obMake("maturity"&amp;ROW(I9),"String",I9)</f>
         <v>maturity9 
-[7598]</v>
+[4109]</v>
       </c>
       <c r="I9" s="16" t="s">
         <v>27</v>
@@ -17722,7 +18074,7 @@
       <c r="B10" s="37" t="str">
         <f>[1]!obMake("spotOffsetDays"&amp;COLUMN(),"int",C10)</f>
         <v>spotOffsetDays2 
-[7592]</v>
+[4103]</v>
       </c>
       <c r="C10" s="19">
         <v>0</v>
@@ -17730,7 +18082,7 @@
       <c r="E10" s="37" t="str">
         <f>[1]!obMake("spotOffsetDays"&amp;COLUMN(),"int",F10)</f>
         <v>spotOffsetDays5 
-[7580]</v>
+[4091]</v>
       </c>
       <c r="F10" s="19">
         <v>0</v>
@@ -17747,7 +18099,7 @@
       <c r="B11" s="37" t="str">
         <f>[1]!obMake("forwardStartPeriod"&amp;COLUMN(),"String",C11)</f>
         <v>forwardStartPeriod2 
-[7593]</v>
+[4104]</v>
       </c>
       <c r="C11" s="20" t="s">
         <v>35</v>
@@ -17755,7 +18107,7 @@
       <c r="E11" s="37" t="str">
         <f>[1]!obMake("forwardStartPeriod"&amp;COLUMN(),"String",F11)</f>
         <v>forwardStartPeriod5 
-[7581]</v>
+[4092]</v>
       </c>
       <c r="F11" s="20" t="s">
         <v>35</v>
@@ -17772,7 +18124,7 @@
       <c r="B12" s="37" t="str">
         <f>[1]!obMake("maturity"&amp;COLUMN(),"String",C12)</f>
         <v>maturity2 
-[7594]</v>
+[4105]</v>
       </c>
       <c r="C12" s="20" t="s">
         <v>27</v>
@@ -17780,7 +18132,7 @@
       <c r="E12" s="37" t="str">
         <f>[1]!obMake("maturity"&amp;COLUMN(),"String",F12)</f>
         <v>maturity5 
-[7582]</v>
+[4093]</v>
       </c>
       <c r="F12" s="20" t="s">
         <v>27</v>
@@ -17803,7 +18155,7 @@
       <c r="B13" s="37" t="str">
         <f>[1]!obMake("frequency"&amp;COLUMN(),"String",C13)</f>
         <v>frequency2 
-[7595]</v>
+[4106]</v>
       </c>
       <c r="C13" s="20" t="s">
         <v>28</v>
@@ -17811,7 +18163,7 @@
       <c r="E13" s="37" t="str">
         <f>[1]!obMake("frequency"&amp;COLUMN(),"String",F13)</f>
         <v>frequency5 
-[7583]</v>
+[4094]</v>
       </c>
       <c r="F13" s="20" t="s">
         <v>28</v>
@@ -17828,7 +18180,7 @@
       <c r="B14" s="37" t="str">
         <f>[1]!obMake("dayCount"&amp;COLUMN(),"String",C14)</f>
         <v>dayCount2 
-[7596]</v>
+[4107]</v>
       </c>
       <c r="C14" s="20" t="s">
         <v>29</v>
@@ -17836,7 +18188,7 @@
       <c r="E14" s="37" t="str">
         <f>[1]!obMake("dayCount"&amp;COLUMN(),"String",F14)</f>
         <v>dayCount5 
-[7584]</v>
+[4095]</v>
       </c>
       <c r="F14" s="20" t="s">
         <v>29</v>
@@ -17857,7 +18209,7 @@
       <c r="B15" s="37" t="str">
         <f>[1]!obMake("shortPeriodConvention"&amp;COLUMN(),"String",C15)</f>
         <v>shortPeriodConvention2 
-[7588]</v>
+[4099]</v>
       </c>
       <c r="C15" s="20" t="s">
         <v>30</v>
@@ -17865,7 +18217,7 @@
       <c r="E15" s="37" t="str">
         <f>[1]!obMake("shortPeriodConvention"&amp;COLUMN(),"String",F15)</f>
         <v>shortPeriodConvention5 
-[7576]</v>
+[4087]</v>
       </c>
       <c r="F15" s="20" t="s">
         <v>30</v>
@@ -17873,12 +18225,12 @@
       <c r="H15" s="37" t="str">
         <f>[1]!obMake("LegFloat"&amp;I9,$L$12,$B$20,$B$33,$B$28,$B$34,$B$35)</f>
         <v>LegFloat5Y 
-[12746]</v>
+[9257]</v>
       </c>
       <c r="I15" s="37" t="str">
         <f>[1]!obMake("LegFixed"&amp;I9,$L$12,$E$20,$E$25,[1]!obcast("index",$L$13),$E$26,$E$27)</f>
         <v>LegFixed5Y 
-[12739]</v>
+[9250]</v>
       </c>
       <c r="L15" s="10" t="str">
         <f>obLibs&amp;"net.finmath.montecarlo.interestrate.products.Portfolio"</f>
@@ -17892,7 +18244,7 @@
       <c r="B16" s="37" t="str">
         <f>[1]!obMake("dayRollConvention"&amp;COLUMN(),"String",C16)</f>
         <v>dayRollConvention2 
-[7587]</v>
+[4098]</v>
       </c>
       <c r="C16" s="20" t="s">
         <v>31</v>
@@ -17900,7 +18252,7 @@
       <c r="E16" s="37" t="str">
         <f>[1]!obMake("dayRollConvention"&amp;COLUMN(),"String",F16)</f>
         <v>dayRollConvention5 
-[7575]</v>
+[4086]</v>
       </c>
       <c r="F16" s="20" t="s">
         <v>31</v>
@@ -17917,7 +18269,7 @@
       <c r="B17" s="37" t="str">
         <f>[1]!obMake("fixingOffsetDays"&amp;COLUMN(),"int",C17)</f>
         <v>fixingOffsetDays2 
-[7586]</v>
+[4097]</v>
       </c>
       <c r="C17" s="20">
         <v>0</v>
@@ -17925,13 +18277,17 @@
       <c r="E17" s="37" t="str">
         <f>[1]!obMake("fixingOffsetDays"&amp;COLUMN(),"int",F17)</f>
         <v>fixingOffsetDays5 
-[7574]</v>
+[4085]</v>
       </c>
       <c r="F17" s="20">
         <v>0</v>
       </c>
       <c r="H17" s="11" t="s">
         <v>24</v>
+      </c>
+      <c r="L17" s="10" t="str">
+        <f>obLibs&amp;"net.finmath.montecarlo.interestrate.products.Swaption"</f>
+        <v>net.finmath.montecarlo.interestrate.products.Swaption</v>
       </c>
       <c r="IQ17" s="6"/>
       <c r="IR17" s="6"/>
@@ -17943,7 +18299,7 @@
       <c r="B18" s="37" t="str">
         <f>[1]!obMake("paymentOffsetDays"&amp;COLUMN(),"int",C18)</f>
         <v>paymentOffsetDays2 
-[7585]</v>
+[4096]</v>
       </c>
       <c r="C18" s="20">
         <v>0</v>
@@ -17951,14 +18307,14 @@
       <c r="E18" s="37" t="str">
         <f>[1]!obMake("paymentOffsetDays"&amp;COLUMN(),"int",F18)</f>
         <v>paymentOffsetDays5 
-[7573]</v>
+[4084]</v>
       </c>
       <c r="F18" s="20">
         <v>0</v>
       </c>
       <c r="L18" s="1" t="str">
-        <f>obLibs&amp;"net.finmath.montecarlo.interestrate.products.AbstractLIBORMonteCarloProduct"</f>
-        <v>net.finmath.montecarlo.interestrate.products.AbstractLIBORMonteCarloProduct</v>
+        <f>obLibs&amp;"net.finmath.montecarlo.interestrate.products.AbstractLIBORMonteCarloRegressionProduct"</f>
+        <v>net.finmath.montecarlo.interestrate.products.AbstractLIBORMonteCarloRegressionProduct</v>
       </c>
       <c r="IS18" s="6"/>
       <c r="IT18" s="6"/>
@@ -17975,10 +18331,6 @@
       <c r="F19" s="13"/>
       <c r="H19" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="L19" s="10" t="str">
-        <f>obLibs&amp;"net.finmath.montecarlo.interestrate.products.Swaption"</f>
-        <v>net.finmath.montecarlo.interestrate.products.Swaption</v>
       </c>
       <c r="IS19" s="6"/>
       <c r="IT19" s="6"/>
@@ -17988,17 +18340,17 @@
       <c r="B20" s="37" t="str">
         <f>[1]!obcall("ScheduleFloat",$L$8,"createScheduleFromConventions",B9:B16,[1]!obMake("",$L$9),B17:B18)</f>
         <v>ScheduleFloat 
-[12745]</v>
+[9256]</v>
       </c>
       <c r="E20" s="37" t="str">
         <f>[1]!obcall("ScheduleFixed",$L$8,"createScheduleFromConventions",E9:E16,[1]!obMake("",$L$9),E17:E18)</f>
         <v>ScheduleFixed 
-[12737]</v>
+[9248]</v>
       </c>
       <c r="H20" s="37" t="str">
         <f>[1]!obMake("Swap"&amp;I9,$L$14,H15,I15)</f>
         <v>Swap5Y 
-[12747]</v>
+[26627]</v>
       </c>
       <c r="IS20" s="6"/>
       <c r="IT20" s="6"/>
@@ -18053,7 +18405,7 @@
       <c r="B25" s="37" t="str">
         <f>[1]!obMake("periodStartOffset","double",C25)</f>
         <v>periodStartOffset 
-[7053]</v>
+[3564]</v>
       </c>
       <c r="C25" s="20">
         <v>0</v>
@@ -18061,7 +18413,7 @@
       <c r="E25" s="37" t="str">
         <f>[1]!obMake("notional"&amp;COLUMN(),$L$11,[1]!obMake("","double",F25))</f>
         <v>notional5 
-[12731]</v>
+[9242]</v>
       </c>
       <c r="F25" s="20">
         <v>100</v>
@@ -18069,7 +18421,7 @@
       <c r="H25" s="37" t="str">
         <f>[1]!obMake("Portfolio",$L$15,H20,[1]!obMake("","double",1))</f>
         <v>Portfolio 
-[12749]</v>
+[26629]</v>
       </c>
       <c r="IS25" s="6"/>
       <c r="IT25" s="6"/>
@@ -18079,7 +18431,7 @@
       <c r="B26" s="37" t="str">
         <f>[1]!obMake("periodLength","double",C26)</f>
         <v>periodLength 
-[7052]</v>
+[3563]</v>
       </c>
       <c r="C26" s="20">
         <v>0.5</v>
@@ -18087,7 +18439,7 @@
       <c r="E26" s="37" t="str">
         <f>[1]!obMake("spread"&amp;COLUMN(),"double",F26)</f>
         <v>spread5 
-[7571]</v>
+[4082]</v>
       </c>
       <c r="F26" s="20">
         <v>0</v>
@@ -18104,7 +18456,7 @@
       <c r="E27" s="37" t="str">
         <f>[1]!obMake("isNotionalExchanged"&amp;COLUMN(),"boolean",F27)</f>
         <v>isNotionalExchanged5 
-[7570]</v>
+[4081]</v>
       </c>
       <c r="F27" s="20" t="b">
         <v>0</v>
@@ -18117,7 +18469,7 @@
       <c r="B28" s="37" t="str">
         <f>[1]!obMake("Index",$L$10,B25:B26)</f>
         <v>Index 
-[11717]</v>
+[8235]</v>
       </c>
       <c r="IS28" s="6"/>
       <c r="IT28" s="6"/>
@@ -18158,7 +18510,7 @@
       <c r="B33" s="37" t="str">
         <f>[1]!obMake("notional"&amp;COLUMN(),$L$11,[1]!obMake("","double",C33))</f>
         <v>notional2 
-[12729]</v>
+[9240]</v>
       </c>
       <c r="C33" s="20">
         <v>100</v>
@@ -18171,7 +18523,7 @@
       <c r="B34" s="37" t="str">
         <f>[1]!obMake("spread"&amp;COLUMN(),"double",C34)</f>
         <v>spread2 
-[7568]</v>
+[4079]</v>
       </c>
       <c r="C34" s="20">
         <v>0</v>
@@ -18184,7 +18536,7 @@
       <c r="B35" s="37" t="str">
         <f>[1]!obMake("isNotionalExchanged"&amp;COLUMN(),"boolean",C35)</f>
         <v>isNotionalExchanged2 
-[7567]</v>
+[4078]</v>
       </c>
       <c r="C35" s="20" t="b">
         <v>0</v>
@@ -18459,7 +18811,7 @@
     </row>
     <row r="39" spans="1:255" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B39" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C39" s="6"/>
       <c r="E39" s="8"/>
@@ -18515,7 +18867,7 @@
       <c r="B44" s="17" t="str">
         <f>[1]!obMake("Maturity","String[]",C44:C44)</f>
         <v>Maturity 
-[7049]</v>
+[3560]</v>
       </c>
       <c r="C44" s="18" t="s">
         <v>27</v>
@@ -18524,7 +18876,7 @@
       <c r="F44" s="17" t="str">
         <f>[1]!obMake("ExerciseDate","double",G44)</f>
         <v>ExerciseDate 
-[7048]</v>
+[3559]</v>
       </c>
       <c r="G44" s="16">
         <v>2</v>
@@ -18540,7 +18892,7 @@
       <c r="B45" s="17" t="str">
         <f>[1]!obMake("Weight","double[]",C45:C45)</f>
         <v>Weight 
-[7050]</v>
+[3561]</v>
       </c>
       <c r="C45" s="16">
         <v>1</v>
@@ -18549,7 +18901,7 @@
       <c r="F45" s="17" t="str">
         <f>[1]!obMake("FixingDates","double[]",G43:N43)</f>
         <v>FixingDates 
-[7047]</v>
+[3558]</v>
       </c>
       <c r="G45" s="21">
         <v>2</v>
@@ -18585,7 +18937,7 @@
       <c r="F46" s="17" t="str">
         <f>[1]!obMake("PaymentDates","double[]",G44:N44)</f>
         <v>PaymentDates 
-[7046]</v>
+[3557]</v>
       </c>
       <c r="G46" s="16">
         <v>2.5</v>
@@ -18616,7 +18968,7 @@
       <c r="B47" s="17" t="str">
         <f>[1]!obcall("SwapRegression",$L$16,"createSwaps",B44)</f>
         <v>SwapRegression 
-[11713]</v>
+[8231]</v>
       </c>
       <c r="C47" s="10" t="s">
         <v>38</v>
@@ -18625,7 +18977,7 @@
       <c r="F47" s="17" t="str">
         <f>[1]!obMake("SwapRates","double[]",G45:N45)</f>
         <v>SwapRates 
-[7045]</v>
+[3556]</v>
       </c>
       <c r="G47" s="16">
         <v>-0.01</v>
@@ -18656,16 +19008,16 @@
       <c r="B48" s="17" t="str">
         <f>[1]!obMake("Portfolio"&amp;COLUMN()&amp;ROW(),$L$15,B47,B45)</f>
         <v>Portfolio248 
-[11716]</v>
-      </c>
-      <c r="C48" s="10" t="s">
-        <v>41</v>
+[17439]</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="E48" s="12"/>
       <c r="F48" s="17" t="str">
         <f>[1]!obMake("Notional"&amp;COLUMN(),"double",G48)</f>
         <v>Notional6 
-[7044]</v>
+[3555]</v>
       </c>
       <c r="G48" s="16">
         <v>100</v>
@@ -18676,7 +19028,10 @@
       <c r="B49" s="10" t="str">
         <f>[1]!obcall("",B48,"setInitialLifeTime",[1]!obMake("","double",5))</f>
         <v>Portfolio248 
-[11726]</v>
+[17441]</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="E49" s="12"/>
       <c r="F49" s="2" t="s">
@@ -18688,30 +19043,32 @@
       <c r="B50" s="6"/>
       <c r="E50" s="12"/>
       <c r="F50" s="17" t="str">
-        <f>[1]!obMake("Swaption",$L$18&amp;"[]",[1]!obMake("Swaption",$L$19,F44:F48))</f>
+        <f>[1]!obMake("Swaption",$L$18&amp;"[]",[1]!obMake("Swaption",$L$17,F44:F48))</f>
         <v>Swaption 
-[11715]</v>
-      </c>
-      <c r="G50" s="10" t="s">
-        <v>38</v>
+[29527]</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="H50" s="22"/>
       <c r="I50" s="12"/>
     </row>
     <row r="51" spans="2:10" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E51" s="12"/>
-      <c r="F51" s="17" t="e">
+      <c r="F51" s="17" t="str">
         <f>[1]!obMake("Portfolio"&amp;COLUMN()&amp;ROW(),$L$15,F50,B45)</f>
-        <v>#VALUE!</v>
+        <v>Portfolio651 
+[29528]</v>
       </c>
       <c r="H51" s="22"/>
       <c r="I51" s="12"/>
     </row>
     <row r="52" spans="2:10" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E52" s="12"/>
-      <c r="F52" s="23" t="e">
+      <c r="F52" s="23" t="str">
         <f>[1]!obcall("",$F$51,"setInitialLifeTime",[1]!obMake("","double",5))</f>
-        <v>#VALUE!</v>
+        <v>Portfolio651 
+[29530]</v>
       </c>
       <c r="G52" s="23"/>
       <c r="H52" s="22"/>
@@ -19939,8 +20296,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A2:IT283"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -20408,7 +20765,7 @@
   <sheetData>
     <row r="2" spans="1:254" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="24" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:254" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
@@ -21102,19 +21459,19 @@
     </row>
     <row r="6" spans="1:254" ht="11.85" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="49" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C6" s="29"/>
       <c r="F6" s="29" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G6" s="29"/>
       <c r="J6" s="29" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K6" s="29"/>
       <c r="N6" s="29" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="IR6" s="25"/>
       <c r="IS6" s="25"/>
@@ -21162,45 +21519,45 @@
       <c r="B9" s="40" t="str">
         <f>[1]!obMake("Times"&amp;ROW()&amp;COLUMN(),"double[]",B10:B14)</f>
         <v>Times92 
-[7054]</v>
+[3565]</v>
       </c>
       <c r="C9" s="41" t="str">
         <f>[1]!obMake("Discount Factors","double[]",C10:C14)</f>
         <v>Discount Factors 
-[7055]</v>
+[3566]</v>
       </c>
       <c r="D9" s="40" t="str">
         <f>[1]!obcall("DiscountCurve",N8&amp;".DiscountCurve","createDiscountCurveFromDiscountFactors",[1]!obMake("","String","discountCurve"),B9,C9)</f>
         <v>DiscountCurve 
-[11720]</v>
+[8226]</v>
       </c>
       <c r="F9" s="40" t="str">
         <f>[1]!obMake("Times"&amp;ROW()&amp;COLUMN(),"double[]",F10:F14)</f>
         <v>Times96 
-[7057]</v>
+[3568]</v>
       </c>
       <c r="G9" s="41" t="str">
         <f>[1]!obMake("Forwards","double[]",G10:G14)</f>
         <v>Forwards 
-[7058]</v>
+[3569]</v>
       </c>
       <c r="H9" s="40" t="str">
         <f>[1]!obcall("ForwardCurve",N8&amp;".ForwardCurve","createForwardCurveFromForwards",[1]!obMake("","String","forwardCurve"),F9,G9,[1]!obMake("tenor","double",0.5))</f>
         <v>ForwardCurve 
-[11723]</v>
+[8229]</v>
       </c>
       <c r="I9" s="30"/>
       <c r="J9" s="40" t="str">
         <f>[1]!obMake("VolatilityParameter","double",K9)</f>
         <v>VolatilityParameter 
-[20926]</v>
+[45333]</v>
       </c>
       <c r="K9" s="32">
         <f>Regression!C7</f>
         <v>0.2</v>
       </c>
       <c r="N9" s="30" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="IR9" s="25"/>
       <c r="IS9" s="25"/>
@@ -21222,7 +21579,7 @@
       <c r="J10" s="40" t="str">
         <f>[1]!obMake("numberOfPaths"&amp;COLUMN(),"int",K10)</f>
         <v>numberOfPaths10 
-[7061]</v>
+[3572]</v>
       </c>
       <c r="K10" s="32">
         <v>1000</v>
@@ -21251,7 +21608,7 @@
       <c r="J11" s="40" t="str">
         <f>[1]!obMake("numberOfFactors"&amp;COLUMN(),"int",K11)</f>
         <v>numberOfFactors10 
-[7062]</v>
+[3573]</v>
       </c>
       <c r="K11" s="32">
         <v>1</v>
@@ -21281,7 +21638,7 @@
       <c r="J12" s="40" t="str">
         <f>[1]!obMake("correlationDecayParameter"&amp;COLUMN(),"double",K12)</f>
         <v>correlationDecayParameter10 
-[7063]</v>
+[3574]</v>
       </c>
       <c r="K12" s="32">
         <v>0</v>
@@ -21308,7 +21665,7 @@
       <c r="J13" s="40" t="str">
         <f>[1]!obMake("RVFactory"&amp;COLUMN(),$N$10)</f>
         <v>RVFactory10 
-[11718]</v>
+[8224]</v>
       </c>
       <c r="K13" s="30"/>
       <c r="IR13" s="25"/>
@@ -21346,7 +21703,7 @@
       <c r="J15" s="40" t="str">
         <f>[1]!obcall("LMMreg",$N$7,"createLIBORMarketModel",J13,J10:J11,D9,H9,J12,J9)</f>
         <v>LMMreg 
-[30104]</v>
+[45334]</v>
       </c>
       <c r="K15" s="30"/>
       <c r="IR15" s="25"/>
@@ -22733,7 +23090,7 @@
   <dimension ref="A2:IW1042"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K31" sqref="K31"/>
+      <selection activeCell="N31" sqref="N31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -23195,7 +23552,7 @@
   <sheetData>
     <row r="2" spans="1:256" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="24" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:256" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
@@ -23904,7 +24261,7 @@
       <c r="M6" s="28"/>
       <c r="N6" s="28"/>
       <c r="P6" s="29" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="IT6" s="25"/>
       <c r="IU6" s="25"/>
@@ -23912,7 +24269,7 @@
     </row>
     <row r="7" spans="1:256" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C7" s="65">
         <v>0.2</v>
@@ -23928,7 +24285,7 @@
       <c r="M7" s="28"/>
       <c r="N7" s="28"/>
       <c r="P7" s="48" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="IT7" s="25"/>
       <c r="IU7" s="25"/>
@@ -23938,10 +24295,10 @@
       <c r="B8" s="40" t="str">
         <f>LIBORMarketModel!J15</f>
         <v>LMMreg 
-[30104]</v>
+[45334]</v>
       </c>
       <c r="C8" s="28" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E8" s="28"/>
       <c r="F8" s="28"/>
@@ -23962,10 +24319,10 @@
       <c r="B9" s="40" t="str">
         <f>Portfolio!B49</f>
         <v>Portfolio248 
-[11726]</v>
+[17441]</v>
       </c>
       <c r="C9" s="28" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E9" s="28"/>
       <c r="F9" s="28"/>
@@ -23986,7 +24343,7 @@
       <c r="B10" s="40" t="str">
         <f>[1]!obMake("polynomialOrder","int",C10)</f>
         <v>polynomialOrder 
-[7064]</v>
+[3575]</v>
       </c>
       <c r="C10" s="33">
         <v>2</v>
@@ -24027,7 +24384,7 @@
         <v>16</v>
       </c>
       <c r="C12" s="29" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E12" s="28"/>
       <c r="F12" s="28"/>
@@ -24048,14 +24405,14 @@
       <c r="B13" s="42" t="str">
         <f>IF($C$13,[1]!obMake("IMLSQ",$P$7,$B$9,$B$8,$B$10,[1]!obMake("","String","LSQREGRESSION")),"")</f>
         <v>IMLSQ 
-[30106]</v>
+[45336]</v>
       </c>
       <c r="C13" s="33" t="b">
         <f>TRUE</f>
         <v>1</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E13" s="28"/>
       <c r="F13" s="28"/>
@@ -24075,13 +24432,13 @@
       <c r="B14" s="42" t="str">
         <f>IF($C$14,[1]!obMake("IMSimple",$P$7,$B$9,$B$8,$B$10,[1]!obMake("","String","SIMPLE")),"")</f>
         <v>IMSimple 
-[31102]</v>
+[46332]</v>
       </c>
       <c r="C14" s="33" t="b">
         <v>1</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E14" s="28"/>
       <c r="F14" s="28"/>
@@ -24115,7 +24472,7 @@
     </row>
     <row r="16" spans="1:256" ht="11.85" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B16" s="29" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C16" s="29"/>
       <c r="D16" s="24"/>
@@ -24137,7 +24494,7 @@
       <c r="B17" s="42" t="str">
         <f>[1]!obMake("timeStep","double",C17)</f>
         <v>timeStep 
-[11712]</v>
+[8223]</v>
       </c>
       <c r="C17" s="33">
         <v>0.05</v>
@@ -24163,7 +24520,7 @@
       <c r="B18" s="42" t="str">
         <f>[1]!obMake("finalTime","double",C18)</f>
         <v>finalTime 
-[11711]</v>
+[8222]</v>
       </c>
       <c r="C18" s="33">
         <v>5</v>
@@ -24184,7 +24541,7 @@
     </row>
     <row r="20" spans="1:256" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="25" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C20" s="25"/>
       <c r="D20" s="24"/>
@@ -24194,13 +24551,13 @@
     </row>
     <row r="21" spans="1:256" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B21" s="29" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C21" s="29" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D21" s="29" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="IT21" s="25"/>
       <c r="IU21" s="25"/>
@@ -24210,7 +24567,7 @@
       <c r="B22" s="42" t="str">
         <f>IF($D$22,[1]!obcall("NPV",$B$9,"getValue",[1]!obMake("","double",C22),$B$8),"")</f>
         <v>NPV 
-[32036]</v>
+[47266]</v>
       </c>
       <c r="C22" s="33">
         <v>1</v>
@@ -24227,7 +24584,7 @@
       <c r="B23" s="42" t="str">
         <f>[1]!obcall("valueChange",$B$13,"getCleanPortfolioValueChange",[1]!obMake("","double",C22))</f>
         <v>valueChange 
-[31100]</v>
+[46330]</v>
       </c>
       <c r="D23" s="24"/>
       <c r="IT23" s="25"/>
@@ -24238,7 +24595,7 @@
       <c r="B24" s="42" t="str">
         <f>[1]!obcall("condVariance",$B$13,"getVarianceForecast",[1]!obMake("","double",C22),$B$8)</f>
         <v>condVariance 
-[32968]</v>
+[48198]</v>
       </c>
       <c r="C24" s="25"/>
       <c r="D24" s="25"/>
@@ -24256,25 +24613,25 @@
     </row>
     <row r="26" spans="1:256" ht="11.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="43" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C26" s="43" t="s">
+        <v>57</v>
+      </c>
+      <c r="D26" s="44" t="s">
+        <v>56</v>
+      </c>
+      <c r="E26" s="43" t="s">
         <v>58</v>
-      </c>
-      <c r="D26" s="44" t="s">
-        <v>57</v>
-      </c>
-      <c r="E26" s="43" t="s">
-        <v>59</v>
       </c>
       <c r="F26" s="43" t="s">
         <v>34</v>
       </c>
       <c r="G26" s="62" t="s">
-        <v>63</v>
-      </c>
-      <c r="H26" s="43" t="s">
-        <v>60</v>
+        <v>70</v>
+      </c>
+      <c r="H26" s="62" t="s">
+        <v>69</v>
       </c>
       <c r="AH26" s="24"/>
       <c r="IU26" s="25"/>
